--- a/Res_2_Results/Res_SummaryT_Subgroup_Suicide.xlsx
+++ b/Res_2_Results/Res_SummaryT_Subgroup_Suicide.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -501,45 +501,6 @@
   </si>
   <si>
     <t xml:space="preserve">.973 [.972, .976]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Level (Grade)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 [-0.18, -0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56 (0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69 (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.983 [.982, .985]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.99 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.94 (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22 (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.995 [.994, .995]</t>
   </si>
 </sst>
 </file>
@@ -1521,56 +1482,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" t="s">
-        <v>172</v>
-      </c>
-      <c r="M14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s">
-        <v>174</v>
-      </c>
-      <c r="O14" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
